--- a/Symphony/2021/AUGUST/All Details/25.08.2021/MC Bank Statement August-2021.xlsx
+++ b/Symphony/2021/AUGUST/All Details/25.08.2021/MC Bank Statement August-2021.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="803" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="803" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="March 2021" sheetId="7" state="hidden" r:id="rId1"/>
@@ -106,6 +106,21 @@
             <charset val="1"/>
           </rPr>
           <t>Tep=12, Rubber</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B27" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Imon Boss Market visit Oil=200
+</t>
         </r>
       </text>
     </comment>
@@ -3226,12 +3241,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="39" fillId="35" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3263,6 +3272,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="39" fillId="35" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="35" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6378,9 +6393,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X320"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q37" sqref="Q37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6393,67 +6408,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="351" t="s">
+      <c r="A1" s="349" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="351"/>
-      <c r="C1" s="351"/>
-      <c r="D1" s="351"/>
-      <c r="E1" s="351"/>
-      <c r="F1" s="351"/>
-      <c r="G1" s="351"/>
-      <c r="H1" s="351"/>
-      <c r="I1" s="351"/>
-      <c r="J1" s="351"/>
-      <c r="K1" s="351"/>
-      <c r="L1" s="351"/>
-      <c r="M1" s="351"/>
-      <c r="N1" s="351"/>
-      <c r="O1" s="351"/>
-      <c r="P1" s="351"/>
-      <c r="Q1" s="351"/>
+      <c r="B1" s="349"/>
+      <c r="C1" s="349"/>
+      <c r="D1" s="349"/>
+      <c r="E1" s="349"/>
+      <c r="F1" s="349"/>
+      <c r="G1" s="349"/>
+      <c r="H1" s="349"/>
+      <c r="I1" s="349"/>
+      <c r="J1" s="349"/>
+      <c r="K1" s="349"/>
+      <c r="L1" s="349"/>
+      <c r="M1" s="349"/>
+      <c r="N1" s="349"/>
+      <c r="O1" s="349"/>
+      <c r="P1" s="349"/>
+      <c r="Q1" s="349"/>
     </row>
     <row r="2" spans="1:24" s="85" customFormat="1" ht="18">
-      <c r="A2" s="352" t="s">
+      <c r="A2" s="350" t="s">
         <v>220</v>
       </c>
-      <c r="B2" s="352"/>
-      <c r="C2" s="352"/>
-      <c r="D2" s="352"/>
-      <c r="E2" s="352"/>
-      <c r="F2" s="352"/>
-      <c r="G2" s="352"/>
-      <c r="H2" s="352"/>
-      <c r="I2" s="352"/>
-      <c r="J2" s="352"/>
-      <c r="K2" s="352"/>
-      <c r="L2" s="352"/>
-      <c r="M2" s="352"/>
-      <c r="N2" s="352"/>
-      <c r="O2" s="352"/>
-      <c r="P2" s="352"/>
-      <c r="Q2" s="352"/>
+      <c r="B2" s="350"/>
+      <c r="C2" s="350"/>
+      <c r="D2" s="350"/>
+      <c r="E2" s="350"/>
+      <c r="F2" s="350"/>
+      <c r="G2" s="350"/>
+      <c r="H2" s="350"/>
+      <c r="I2" s="350"/>
+      <c r="J2" s="350"/>
+      <c r="K2" s="350"/>
+      <c r="L2" s="350"/>
+      <c r="M2" s="350"/>
+      <c r="N2" s="350"/>
+      <c r="O2" s="350"/>
+      <c r="P2" s="350"/>
+      <c r="Q2" s="350"/>
     </row>
     <row r="3" spans="1:24" s="86" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="353" t="s">
+      <c r="A3" s="351" t="s">
         <v>186</v>
       </c>
-      <c r="B3" s="354"/>
-      <c r="C3" s="354"/>
-      <c r="D3" s="354"/>
-      <c r="E3" s="354"/>
-      <c r="F3" s="354"/>
-      <c r="G3" s="354"/>
-      <c r="H3" s="354"/>
-      <c r="I3" s="354"/>
-      <c r="J3" s="354"/>
-      <c r="K3" s="354"/>
-      <c r="L3" s="354"/>
-      <c r="M3" s="354"/>
-      <c r="N3" s="354"/>
-      <c r="O3" s="354"/>
-      <c r="P3" s="354"/>
-      <c r="Q3" s="355"/>
+      <c r="B3" s="352"/>
+      <c r="C3" s="352"/>
+      <c r="D3" s="352"/>
+      <c r="E3" s="352"/>
+      <c r="F3" s="352"/>
+      <c r="G3" s="352"/>
+      <c r="H3" s="352"/>
+      <c r="I3" s="352"/>
+      <c r="J3" s="352"/>
+      <c r="K3" s="352"/>
+      <c r="L3" s="352"/>
+      <c r="M3" s="352"/>
+      <c r="N3" s="352"/>
+      <c r="O3" s="352"/>
+      <c r="P3" s="352"/>
+      <c r="Q3" s="353"/>
       <c r="S3" s="68"/>
       <c r="T3" s="8"/>
       <c r="U3" s="8"/>
@@ -6462,49 +6477,49 @@
       <c r="X3" s="18"/>
     </row>
     <row r="4" spans="1:24" s="87" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="356" t="s">
+      <c r="A4" s="354" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="358" t="s">
+      <c r="B4" s="356" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="347" t="s">
+      <c r="C4" s="358" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="347" t="s">
+      <c r="D4" s="358" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="347" t="s">
+      <c r="E4" s="358" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="347" t="s">
+      <c r="F4" s="358" t="s">
         <v>189</v>
       </c>
-      <c r="G4" s="347" t="s">
+      <c r="G4" s="358" t="s">
         <v>51</v>
       </c>
-      <c r="H4" s="347" t="s">
+      <c r="H4" s="358" t="s">
         <v>179</v>
       </c>
-      <c r="I4" s="347" t="s">
+      <c r="I4" s="358" t="s">
         <v>182</v>
       </c>
-      <c r="J4" s="347" t="s">
+      <c r="J4" s="358" t="s">
         <v>52</v>
       </c>
-      <c r="K4" s="347" t="s">
+      <c r="K4" s="358" t="s">
         <v>53</v>
       </c>
-      <c r="L4" s="347" t="s">
+      <c r="L4" s="358" t="s">
         <v>54</v>
       </c>
-      <c r="M4" s="347" t="s">
+      <c r="M4" s="358" t="s">
         <v>55</v>
       </c>
-      <c r="N4" s="347" t="s">
+      <c r="N4" s="358" t="s">
         <v>56</v>
       </c>
-      <c r="O4" s="349" t="s">
+      <c r="O4" s="347" t="s">
         <v>57</v>
       </c>
       <c r="P4" s="360" t="s">
@@ -6520,21 +6535,21 @@
       <c r="W4" s="89"/>
     </row>
     <row r="5" spans="1:24" s="87" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="357"/>
-      <c r="B5" s="359"/>
-      <c r="C5" s="348"/>
-      <c r="D5" s="348"/>
-      <c r="E5" s="348"/>
-      <c r="F5" s="348"/>
-      <c r="G5" s="348"/>
-      <c r="H5" s="348"/>
-      <c r="I5" s="348"/>
-      <c r="J5" s="348"/>
-      <c r="K5" s="348"/>
-      <c r="L5" s="348"/>
-      <c r="M5" s="348"/>
-      <c r="N5" s="348"/>
-      <c r="O5" s="350"/>
+      <c r="A5" s="355"/>
+      <c r="B5" s="357"/>
+      <c r="C5" s="359"/>
+      <c r="D5" s="359"/>
+      <c r="E5" s="359"/>
+      <c r="F5" s="359"/>
+      <c r="G5" s="359"/>
+      <c r="H5" s="359"/>
+      <c r="I5" s="359"/>
+      <c r="J5" s="359"/>
+      <c r="K5" s="359"/>
+      <c r="L5" s="359"/>
+      <c r="M5" s="359"/>
+      <c r="N5" s="359"/>
+      <c r="O5" s="348"/>
       <c r="P5" s="361"/>
       <c r="Q5" s="157" t="s">
         <v>58</v>
@@ -7406,7 +7421,7 @@
         <v>243</v>
       </c>
       <c r="B27" s="102">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="C27" s="95"/>
       <c r="D27" s="103"/>
@@ -7432,7 +7447,7 @@
       <c r="P27" s="105"/>
       <c r="Q27" s="99">
         <f t="shared" si="0"/>
-        <v>1460</v>
+        <v>1660</v>
       </c>
       <c r="R27" s="100"/>
       <c r="S27" s="7"/>
@@ -7660,7 +7675,7 @@
       </c>
       <c r="B37" s="120">
         <f>SUM(B6:B36)</f>
-        <v>18350</v>
+        <v>18550</v>
       </c>
       <c r="C37" s="121">
         <f t="shared" ref="C37:P37" si="1">SUM(C6:C36)</f>
@@ -7720,7 +7735,7 @@
       </c>
       <c r="Q37" s="123">
         <f>SUM(Q6:Q36)</f>
-        <v>50388</v>
+        <v>50588</v>
       </c>
       <c r="S37" s="303" t="s">
         <v>66</v>
@@ -9726,6 +9741,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
@@ -9742,9 +9760,6 @@
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -33111,7 +33126,7 @@
   </sheetPr>
   <dimension ref="A1:AC220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
